--- a/src/main/java/edu/psu/behavioural/strategy/strategy.xlsx
+++ b/src/main/java/edu/psu/behavioural/strategy/strategy.xlsx
@@ -12,21 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>.\Compositor.java</t>
-  </si>
-  <si>
-    <t>.\TeXCompositor.java</t>
-  </si>
-  <si>
-    <t>.\SimpleCompositor.java</t>
-  </si>
-  <si>
-    <t>.\Composition.java</t>
-  </si>
-  <si>
-    <t>.\ArrayCompositor.java</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>.\compositor\Compositor.java</t>
+  </si>
+  <si>
+    <t>.\compositor\TeXCompositor.java</t>
+  </si>
+  <si>
+    <t>.\compositor\SimpleCompositor.java</t>
+  </si>
+  <si>
+    <t>.\compositor\ArrayCompositor.java</t>
+  </si>
+  <si>
+    <t>.\composition\Composition.java</t>
   </si>
   <si>
     <t>.\Demo.java</t>
@@ -50,16 +50,19 @@
     <t>(6)</t>
   </si>
   <si>
+    <t>Import,Implement</t>
+  </si>
+  <si>
     <t>Implement</t>
   </si>
   <si>
-    <t>Call,Contain,Parameter,Use:2</t>
-  </si>
-  <si>
-    <t>Create,Call</t>
-  </si>
-  <si>
-    <t>Create:2,Call:8,Contain:2</t>
+    <t>Contain,Import,Call,Use:2,Parameter</t>
+  </si>
+  <si>
+    <t>Create,Import,Call</t>
+  </si>
+  <si>
+    <t>Create:2,Import,Call:8,Contain:2</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
@@ -303,16 +306,16 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="16">
         <v>11</v>
